--- a/xlsx/一党优势制_intext.xlsx
+++ b/xlsx/一党优势制_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="643">
   <si>
     <t>一党优势制</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E4%B8%93%E6%94%BF</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%B9%B4%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>十年建設</t>
+    <t>十年建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E5%93%A1%E6%88%A1%E4%BA%82%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>動員戡亂時期</t>
+    <t>动员戡乱时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E8%BC%AA%E6%9B%BF</t>
   </si>
   <si>
-    <t>政黨輪替</t>
+    <t>政党轮替</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%A1%88</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E6%B4%BE</t>
   </si>
   <si>
-    <t>中間派</t>
+    <t>中间派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AA%E8%85%90</t>
   </si>
   <si>
-    <t>貪腐</t>
+    <t>贪腐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E9%87%8E%E9%BB%A8</t>
   </si>
   <si>
-    <t>在野黨</t>
+    <t>在野党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%AF%B9%E5%85%9A</t>
@@ -161,43 +161,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>執政黨</t>
+    <t>执政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD</t>
   </si>
   <si>
-    <t>競爭</t>
+    <t>竞争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>自由民主黨 (日本)</t>
+    <t>自由民主党 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%A4%BE%E6%9C%83%E9%BB%A8</t>
   </si>
   <si>
-    <t>日本社會黨</t>
+    <t>日本社会党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E4%BA%94%E5%B9%B4%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>五五年體制</t>
+    <t>五五年体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>日本經濟</t>
+    <t>日本经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%88%98%E5%90%8E%E7%BB%8F%E6%B5%8E%E5%A5%87%E8%BF%B9</t>
@@ -221,37 +221,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E4%B8%89%E8%A7%92_(%E6%94%BF%E6%B2%BB%E5%AD%B8)</t>
   </si>
   <si>
-    <t>鐵三角 (政治學)</t>
+    <t>铁三角 (政治学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BD%E9%81%8B</t>
   </si>
   <si>
-    <t>命運</t>
+    <t>命运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>民主黨 (日本)</t>
+    <t>民主党 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC46%E5%B1%86%E6%97%A5%E6%9C%AC%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E5%93%A1%E7%B8%BD%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>第46屆日本眾議院議員總選舉</t>
+    <t>第46届日本众议院议员总选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B6%E7%AB%8B%E5%88%B6</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>參議院 (日本)</t>
+    <t>参议院 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%97%E8%AE%AE%E9%99%A2_(%E6%97%A5%E6%9C%AC)</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>日本行政區劃</t>
+    <t>日本行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%81%B8%E5%8D%80%E5%88%B6</t>
   </si>
   <si>
-    <t>小選區制</t>
+    <t>小选区制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>獨立</t>
+    <t>独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%9B%BD%E5%A4%A7%E5%85%9A</t>
@@ -323,79 +323,79 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%B7%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>以色列工黨</t>
+    <t>以色列工党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%A8%E5%A4%96%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>黨外運動</t>
+    <t>党外运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%80%B2%E6%AD%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>民主進步黨</t>
+    <t>民主进步党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1986%E5%B9%B4%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%AB%8B%E6%B3%95%E5%A7%94%E5%93%A1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1986年中華民國立法委員選舉</t>
+    <t>1986年中华民国立法委员选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%A4%A7%E4%BB%A3%E8%A1%A8</t>
   </si>
   <si>
-    <t>國大代表</t>
+    <t>国大代表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%9C%81%E6%88%92%E5%9A%B4%E4%BB%A4</t>
   </si>
   <si>
-    <t>臺灣省戒嚴令</t>
+    <t>台湾省戒严令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%9C%A8%E8%87%BA%E7%81%A3%E4%B9%8B%E5%85%A8%E9%9D%A2%E9%81%B8%E8%88%89%E8%88%87%E7%BD%B7%E5%85%8D</t>
   </si>
   <si>
-    <t>中華民國國會在臺灣之全面選舉與罷免</t>
+    <t>中华民国国会在台湾之全面选举与罢免</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%8F%8A%E5%89%AF%E7%B8%BD%E7%B5%B1%E5%9C%A8%E8%87%BA%E7%81%A3%E4%B9%8B%E5%85%AC%E6%B0%91%E7%9B%B4%E6%8E%A5%E9%81%B8%E8%88%89%E8%88%87%E7%BD%B7%E5%85%8D</t>
   </si>
   <si>
-    <t>中華民國總統及副總統在臺灣之公民直接選舉與罷免</t>
+    <t>中华民国总统及副总统在台湾之公民直接选举与罢免</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國國民黨</t>
+    <t>中国国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1997%E5%B9%B4%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%A3%E5%B8%82%E9%95%B7%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1997年中華民國縣市長選舉</t>
+    <t>1997年中华民国县市长选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2000年中華民國總統選舉</t>
+    <t>2000年中华民国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%AB%8B%E6%B3%95%E5%A7%94%E5%93%A1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2016年中華民國立法委員選舉</t>
+    <t>2016年中华民国立法委员选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%BB%A8_(%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>自由黨 (大韓民國)</t>
+    <t>自由党 (大韩民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E6%AD%A3%E7%86%99</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/5%C2%B716%E8%BB%8D%E4%BA%8B%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>5·16軍事政變</t>
+    <t>5·16军事政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%85%9A_(%E9%9F%A9%E5%9B%BD)</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%97%E7%85%A5</t>
   </si>
   <si>
-    <t>全斗煥</t>
+    <t>全斗焕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%96%E7%95%8C%E9%BB%A8</t>
   </si>
   <si>
-    <t>新世界黨</t>
+    <t>新世界党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%B3%B0%E6%84%9A</t>
@@ -461,25 +461,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8D%83%E5%B9%B4%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>新千年民主黨</t>
+    <t>新千年民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%AD%A6%E9%89%89</t>
   </si>
   <si>
-    <t>盧武鉉</t>
+    <t>卢武铉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>開放國民黨</t>
+    <t>开放国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2007年大韓民國總統選舉</t>
+    <t>2007年大韩民国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9B%BD%E5%AE%B6%E5%85%9A</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E5%BB%B7%E7%90%B0</t>
   </si>
   <si>
-    <t>吳廷琰</t>
+    <t>吴廷琰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%8B%9E%E5%8B%95%E9%9D%A9%E5%91%BD%E9%BB%A8</t>
   </si>
   <si>
-    <t>人民勞動革命黨</t>
+    <t>人民劳动革命党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99%E5%BE%92%E5%8D%B1%E6%9C%BA</t>
@@ -515,19 +515,19 @@
     <t>https://zh.wikipedia.org/wiki/1963%E5%B9%B4%E5%8D%97%E8%B6%8A%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1963年南越政變</t>
+    <t>1963年南越政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>軍事專政</t>
+    <t>军事专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E6%96%87%E7%B4%B9</t>
   </si>
   <si>
-    <t>阮文紹</t>
+    <t>阮文绍</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Social_Democratic_Front</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A5%BF%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>春祿戰役</t>
+    <t>春禄战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B6%8A</t>
@@ -551,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>菲律賓國民黨</t>
+    <t>菲律宾国民党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kilusang_Bagong_Lipunan</t>
@@ -569,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8F%AF%E4%BB%95</t>
   </si>
   <si>
-    <t>馬可仕</t>
+    <t>马可仕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E5%9F%B7%E6%94%BF</t>
   </si>
   <si>
-    <t>一黨執政</t>
+    <t>一党执政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -593,25 +593,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%93%88%E6%89%98</t>
   </si>
   <si>
-    <t>蘇哈托</t>
+    <t>苏哈托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E7%B5%B1</t>
   </si>
   <si>
-    <t>巫統</t>
+    <t>巫统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>國民陣線</t>
+    <t>国民阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E7%9B%9F_(%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A)</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%81%B8</t>
   </si>
   <si>
-    <t>2008年馬來西亞大選</t>
+    <t>2008年马来西亚大选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E8%81%94%E7%9B%9F_(%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A)</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%9C%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>希望聯盟</t>
+    <t>希望联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E8%A1%8C%E5%8A%A8%E5%85%9A_(%E6%96%B0%E5%8A%A0%E5%9D%A1)</t>
@@ -665,13 +662,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A3%89%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>高棉共和國</t>
+    <t>高棉共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E8%AB%BE</t>
   </si>
   <si>
-    <t>朗諾</t>
+    <t>朗诺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_Republican_Party</t>
@@ -683,13 +680,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>柬埔寨人民黨</t>
+    <t>柬埔寨人民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B3%95%E8%A5%BF%E6%96%AF%E4%BA%BA%E6%B0%91%E8%87%AA%E7%94%B1%E5%90%8C%E7%9B%9F</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>軍政府</t>
+    <t>军政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%B9%B3%E4%B8%8E%E5%8F%91%E5%B1%95%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>全國民主聯盟</t>
+    <t>全国民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E8%8C%B2%C2%B7%E8%AC%9D%E9%87%8C%E5%A4%AB</t>
   </si>
   <si>
-    <t>納瓦茲·謝里夫</t>
+    <t>纳瓦兹·谢里夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%B2%99%E6%8B%89%E5%A4%AB</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>巴基斯坦人民黨</t>
+    <t>巴基斯坦人民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E4%BA%BA%E6%B0%91%E5%A4%A7%E4%BC%9A%E5%85%9A</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%C2%B7%E6%8B%89%E5%B8%83%C2%B7%E6%9B%BC%E8%98%87%E7%88%BE%C2%B7%E5%93%88%E8%BF%AA</t>
   </si>
   <si>
-    <t>阿卜杜·拉布·曼蘇爾·哈迪</t>
+    <t>阿卜杜·拉布·曼苏尔·哈迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC%E6%96%AF%E5%9D%A6%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>土庫曼斯坦民主黨</t>
+    <t>土库曼斯坦民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -851,19 +848,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E6%96%AF%E5%9D%A6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>哈薩克斯坦共和國</t>
+    <t>哈萨克斯坦共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E7%88%BE%E8%98%87%E4%B8%B9%C2%B7%E7%B4%8D%E6%89%8E%E7%88%BE%E5%B7%B4%E8%80%B6%E5%A4%AB</t>
   </si>
   <si>
-    <t>努爾蘇丹·納扎爾巴耶夫</t>
+    <t>努尔苏丹·纳扎尔巴耶夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%87%8C%E8%8E%AB%E5%A4%AB</t>
@@ -917,19 +914,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6</t>
   </si>
   <si>
-    <t>亞塞拜然</t>
+    <t>亚塞拜然</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E9%81%94%E7%88%BE%C2%B7%E9%98%BF%E5%88%A9%E8%80%B6%E5%A4%AB</t>
   </si>
   <si>
-    <t>蓋達爾·阿利耶夫</t>
+    <t>盖达尔·阿利耶夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E5%85%B1%E5%92%8C%E5%85%9A</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%A4%A9%E4%B8%BB%E6%95%99%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B7%A5%E4%BA%BA%E7%A4%BE%E6%9C%83%E9%BB%A8</t>
   </si>
   <si>
-    <t>西班牙工人社會黨</t>
+    <t>西班牙工人社会党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -989,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E6%8C%AA%E5%A8%81)</t>
   </si>
   <si>
-    <t>工黨 (挪威)</t>
+    <t>工党 (挪威)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -1001,13 +998,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E9%BB%A8</t>
   </si>
   <si>
-    <t>愛爾蘭共和黨</t>
+    <t>爱尔兰共和党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%B7%A5%E5%85%9A</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E8%80%85%E8%81%AF%E7%9B%9F%EF%BC%8D%E5%8C%88%E7%89%99%E5%88%A9%E5%85%AC%E6%B0%91%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>青年民主主義者聯盟－匈牙利公民聯盟</t>
+    <t>青年民主主义者联盟－匈牙利公民联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -1037,25 +1034,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E5%8B%9E%E5%8B%95%E9%BB%A8</t>
   </si>
   <si>
-    <t>阿爾巴尼亞勞動黨</t>
+    <t>阿尔巴尼亚劳动党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E7%A4%BE%E6%9C%83%E9%BB%A8</t>
   </si>
   <si>
-    <t>阿爾巴尼亞社會黨</t>
+    <t>阿尔巴尼亚社会党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>統一俄羅斯</t>
+    <t>统一俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E8%81%94%E7%9B%9F</t>
@@ -1067,25 +1064,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%B4%9B%E8%88%8D%E7%B6%AD%E5%A5%87</t>
   </si>
   <si>
-    <t>米洛舍維奇</t>
+    <t>米洛舍维奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E7%A4%BE%E6%9C%83%E9%BB%A8</t>
   </si>
   <si>
-    <t>塞爾維亞社會黨</t>
+    <t>塞尔维亚社会党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%A7%E9%83%A8%E9%9D%A9%E5%91%BD%E7%B5%84%E7%B9%94%E6%B0%91%E6%97%8F%E7%B5%B1%E4%B8%80%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>馬其頓內部革命組織民族統一民主黨</t>
+    <t>马其顿内部革命组织民族统一民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%C2%B7%E6%A0%BC%E9%B2%81%E5%9F%83%E5%A4%AB%E6%96%AF%E5%9F%BA</t>
@@ -1097,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1109,13 +1106,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%9C%AB%E7%88%BE</t>
   </si>
   <si>
-    <t>凱末爾</t>
+    <t>凯末尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%BA%BA%E6%B0%91%E9%BB%A8_(%E5%9C%9F%E8%80%B3%E5%85%B6)</t>
   </si>
   <si>
-    <t>共和人民黨 (土耳其)</t>
+    <t>共和人民党 (土耳其)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E5%A4%9A%E5%AE%89</t>
@@ -1139,13 +1136,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A_(%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E)</t>
   </si>
   <si>
-    <t>民族解放陣線 (阿爾及利亞)</t>
+    <t>民族解放阵线 (阿尔及利亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -1163,19 +1160,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%94%BF%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>憲政民主聯盟</t>
+    <t>宪政民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%B0%91%E4%B8%BB%E5%85%9A_(%E5%B0%BC%E6%97%A5%E5%88%A9%E4%BA%9A)</t>
@@ -1217,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>保羅·比亞</t>
+    <t>保罗·比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -1247,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%8A%B3%E5%8A%A8%E5%85%9A</t>
@@ -1259,13 +1256,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果人民共和國</t>
+    <t>刚果人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E5%8D%A1%E6%AF%94%E6%8B%89</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A%E4%BA%BA%E6%B0%91%E9%9D%A9%E5%91%BD%E6%B0%91%E4%B8%BB%E9%98%B5%E7%BA%BF</t>
@@ -1337,19 +1334,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>加蓬民主黨</t>
+    <t>加蓬民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%98%82%C2%B7%E5%A7%86%E5%B7%B4</t>
   </si>
   <si>
-    <t>萊昂·姆巴</t>
+    <t>莱昂·姆巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%90%89%C2%B7%E5%A5%A7%E9%A6%AC%E7%88%BE%C2%B7%E9%82%A6%E6%88%88</t>
   </si>
   <si>
-    <t>哈吉·奧馬爾·邦戈</t>
+    <t>哈吉·奥马尔·邦戈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
@@ -1373,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Congress_for_Democracy_and_Progress</t>
@@ -1385,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%94%E4%BF%9D%E9%9B%B7</t>
   </si>
   <si>
-    <t>龔保雷</t>
+    <t>龚保雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1397,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%C2%B7%E6%81%A9%E5%BA%AB%E5%80%AB%E9%BD%8A%E6%89%8E</t>
   </si>
   <si>
-    <t>皮埃爾·恩庫倫齊扎</t>
+    <t>皮埃尔·恩库伦齐扎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
@@ -1427,31 +1424,28 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>納米比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%A7%86%C2%B7%E5%8A%AA%E5%96%AC%E9%A6%AC</t>
   </si>
   <si>
-    <t>薩姆·努喬馬</t>
+    <t>萨姆·努乔马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%A8%E6%B0%91%E4%B8%BB%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>多黨民主運動</t>
+    <t>多党民主运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%A5%87%E5%8D%A2%E5%B7%B4</t>
@@ -1481,19 +1475,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94%E6%84%9B%E5%9C%8B%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>盧安達愛國陣線</t>
+    <t>卢安达爱国阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94</t>
   </si>
   <si>
-    <t>盧安達</t>
+    <t>卢安达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%8D%A1%E5%8A%A0%E6%A2%85</t>
   </si>
   <si>
-    <t>保羅·卡加梅</t>
+    <t>保罗·卡加梅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -1535,19 +1529,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>蘇丹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97%E5%85%84%E5%BC%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>穆斯林兄弟會</t>
+    <t>穆斯林兄弟会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%A6%AC%E7%88%BE%C2%B7%E5%B7%B4%E5%B8%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>奧馬爾·巴希爾</t>
+    <t>奥马尔·巴希尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
@@ -1565,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B0%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>坦尚尼亞</t>
+    <t>坦尚尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%99%B6%E5%B0%BC%E5%96%80</t>
@@ -1577,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E7%B5%A6%E5%B7%B4%E7%88%BE</t>
   </si>
   <si>
-    <t>桑給巴爾</t>
+    <t>桑给巴尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2-%E8%AE%BE%E6%8B%89%E5%AD%90%E5%85%9A</t>
@@ -1601,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%BE%9B%E8%B2%9D%C2%B7%E5%9F%83%E4%BA%9E%E5%BE%B7%E9%A6%AC</t>
   </si>
   <si>
-    <t>納辛貝·埃亞德馬</t>
+    <t>纳辛贝·埃亚德马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
@@ -1625,9 +1616,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
   </si>
   <si>
@@ -1637,19 +1625,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81%E9%9D%9E%E6%B4%B2%E6%B0%91%E6%97%8F%E8%81%AF%E7%9B%9F%E2%80%94%E6%84%9B%E5%9C%8B%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>辛巴威非洲民族聯盟—愛國陣線</t>
+    <t>辛巴威非洲民族联盟—爱国阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E5%8A%A0%E8%B2%9D</t>
   </si>
   <si>
-    <t>穆加貝</t>
+    <t>穆加贝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅德西亞</t>
+    <t>罗德西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%81%A9%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
@@ -1673,33 +1661,30 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>種族隔離</t>
+    <t>种族隔离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>南非國民黨</t>
+    <t>南非国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%BA%BA%E5%9C%8B%E6%B0%91%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>非洲人國民大會</t>
+    <t>非洲人国民大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%8B%8F%E4%B8%B9</t>
   </si>
   <si>
-    <t>南苏丹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%8B%8F%E4%B8%B9%E7%8B%AC%E7%AB%8B%E5%85%AC%E6%8A%95</t>
   </si>
   <si>
@@ -1733,13 +1718,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A9%E6%96%B0%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家革新聯盟</t>
+    <t>国家革新联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Revolutionary_Nationalist_Movement</t>
@@ -1769,9 +1754,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
   </si>
   <si>
@@ -1799,7 +1781,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -1853,19 +1835,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E5%85%B1%E5%92%8C%E5%9C%8B%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>第五共和國運動</t>
+    <t>第五共和国运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%88%88%C2%B7%E6%9F%A5%E7%B6%AD%E8%8C%B2</t>
   </si>
   <si>
-    <t>烏戈·查維茲</t>
+    <t>乌戈·查维兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E7%BB%9F%E4%B8%80%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%9A</t>
@@ -1895,13 +1877,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%9C%B0%E8%AB%BE%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>桑地諾民族解放陣線</t>
+    <t>桑地诺民族解放阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%92%82%E5%98%89</t>
   </si>
   <si>
-    <t>奧蒂嘉</t>
+    <t>奥蒂嘉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
@@ -1931,13 +1913,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E9%81%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴布達島</t>
+    <t>巴布达岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
@@ -1961,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>威權體制</t>
+    <t>威权体制</t>
   </si>
 </sst>
 </file>
@@ -5203,7 +5185,7 @@
         <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5229,10 +5211,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5258,10 +5240,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5287,10 +5269,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>25</v>
@@ -5316,10 +5298,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5345,10 +5327,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -5374,10 +5356,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5403,10 +5385,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5432,10 +5414,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>5</v>
@@ -5461,10 +5443,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5490,10 +5472,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5519,10 +5501,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5548,10 +5530,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5577,10 +5559,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5606,10 +5588,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5635,10 +5617,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5664,10 +5646,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5693,10 +5675,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>4</v>
@@ -5722,10 +5704,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5751,10 +5733,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5780,10 +5762,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5809,10 +5791,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5838,10 +5820,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -5867,10 +5849,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5896,10 +5878,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5925,10 +5907,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5954,10 +5936,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5983,10 +5965,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6012,10 +5994,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6041,10 +6023,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6070,10 +6052,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6099,10 +6081,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6128,10 +6110,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6157,10 +6139,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6186,10 +6168,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6215,10 +6197,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6244,10 +6226,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6273,10 +6255,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6302,10 +6284,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6331,10 +6313,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6360,10 +6342,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6389,10 +6371,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6418,10 +6400,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6447,10 +6429,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6476,10 +6458,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6505,10 +6487,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6534,10 +6516,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6563,10 +6545,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6592,10 +6574,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6621,10 +6603,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6650,10 +6632,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6679,10 +6661,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6708,10 +6690,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6737,10 +6719,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6766,10 +6748,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6795,10 +6777,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6824,10 +6806,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6853,10 +6835,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6882,10 +6864,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6911,10 +6893,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6940,10 +6922,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6969,10 +6951,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6998,10 +6980,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7027,10 +7009,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7056,10 +7038,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -7085,10 +7067,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -7114,10 +7096,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7143,10 +7125,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>5</v>
@@ -7172,10 +7154,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7201,10 +7183,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7230,10 +7212,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -7259,10 +7241,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7288,10 +7270,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7317,10 +7299,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7346,10 +7328,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7375,10 +7357,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7404,10 +7386,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>344</v>
+      </c>
+      <c r="F176" t="s">
         <v>345</v>
-      </c>
-      <c r="F176" t="s">
-        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7433,10 +7415,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="F177" t="s">
         <v>347</v>
-      </c>
-      <c r="F177" t="s">
-        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7462,10 +7444,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>348</v>
+      </c>
+      <c r="F178" t="s">
         <v>349</v>
-      </c>
-      <c r="F178" t="s">
-        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7491,10 +7473,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>350</v>
+      </c>
+      <c r="F179" t="s">
         <v>351</v>
-      </c>
-      <c r="F179" t="s">
-        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7520,10 +7502,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>352</v>
+      </c>
+      <c r="F180" t="s">
         <v>353</v>
-      </c>
-      <c r="F180" t="s">
-        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7549,10 +7531,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>354</v>
+      </c>
+      <c r="F181" t="s">
         <v>355</v>
-      </c>
-      <c r="F181" t="s">
-        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7578,10 +7560,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>356</v>
+      </c>
+      <c r="F182" t="s">
         <v>357</v>
-      </c>
-      <c r="F182" t="s">
-        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7607,10 +7589,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>358</v>
+      </c>
+      <c r="F183" t="s">
         <v>359</v>
-      </c>
-      <c r="F183" t="s">
-        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7636,10 +7618,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>360</v>
+      </c>
+      <c r="F184" t="s">
         <v>361</v>
-      </c>
-      <c r="F184" t="s">
-        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -7665,10 +7647,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>362</v>
+      </c>
+      <c r="F185" t="s">
         <v>363</v>
-      </c>
-      <c r="F185" t="s">
-        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7694,10 +7676,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>364</v>
+      </c>
+      <c r="F186" t="s">
         <v>365</v>
-      </c>
-      <c r="F186" t="s">
-        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7723,10 +7705,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>366</v>
+      </c>
+      <c r="F187" t="s">
         <v>367</v>
-      </c>
-      <c r="F187" t="s">
-        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7752,10 +7734,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>368</v>
+      </c>
+      <c r="F188" t="s">
         <v>369</v>
-      </c>
-      <c r="F188" t="s">
-        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7781,10 +7763,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>370</v>
+      </c>
+      <c r="F189" t="s">
         <v>371</v>
-      </c>
-      <c r="F189" t="s">
-        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7810,10 +7792,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>372</v>
+      </c>
+      <c r="F190" t="s">
         <v>373</v>
-      </c>
-      <c r="F190" t="s">
-        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -7839,10 +7821,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>374</v>
+      </c>
+      <c r="F191" t="s">
         <v>375</v>
-      </c>
-      <c r="F191" t="s">
-        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7868,10 +7850,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>376</v>
+      </c>
+      <c r="F192" t="s">
         <v>377</v>
-      </c>
-      <c r="F192" t="s">
-        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7897,10 +7879,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>378</v>
+      </c>
+      <c r="F193" t="s">
         <v>379</v>
-      </c>
-      <c r="F193" t="s">
-        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7926,10 +7908,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>380</v>
+      </c>
+      <c r="F194" t="s">
         <v>381</v>
-      </c>
-      <c r="F194" t="s">
-        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7955,10 +7937,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>382</v>
+      </c>
+      <c r="F195" t="s">
         <v>383</v>
-      </c>
-      <c r="F195" t="s">
-        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7984,10 +7966,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>384</v>
+      </c>
+      <c r="F196" t="s">
         <v>385</v>
-      </c>
-      <c r="F196" t="s">
-        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8013,10 +7995,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>386</v>
+      </c>
+      <c r="F197" t="s">
         <v>387</v>
-      </c>
-      <c r="F197" t="s">
-        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8042,10 +8024,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>388</v>
+      </c>
+      <c r="F198" t="s">
         <v>389</v>
-      </c>
-      <c r="F198" t="s">
-        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -8071,10 +8053,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>390</v>
+      </c>
+      <c r="F199" t="s">
         <v>391</v>
-      </c>
-      <c r="F199" t="s">
-        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8100,10 +8082,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>392</v>
+      </c>
+      <c r="F200" t="s">
         <v>393</v>
-      </c>
-      <c r="F200" t="s">
-        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8129,10 +8111,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>394</v>
+      </c>
+      <c r="F201" t="s">
         <v>395</v>
-      </c>
-      <c r="F201" t="s">
-        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8158,10 +8140,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>392</v>
+      </c>
+      <c r="F202" t="s">
         <v>393</v>
-      </c>
-      <c r="F202" t="s">
-        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8187,10 +8169,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>396</v>
+      </c>
+      <c r="F203" t="s">
         <v>397</v>
-      </c>
-      <c r="F203" t="s">
-        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8216,10 +8198,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" t="s">
         <v>399</v>
-      </c>
-      <c r="F204" t="s">
-        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8245,10 +8227,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" t="s">
         <v>401</v>
-      </c>
-      <c r="F205" t="s">
-        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8274,10 +8256,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" t="s">
         <v>403</v>
-      </c>
-      <c r="F206" t="s">
-        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8303,10 +8285,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207" t="s">
         <v>405</v>
-      </c>
-      <c r="F207" t="s">
-        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8332,10 +8314,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>406</v>
+      </c>
+      <c r="F208" t="s">
         <v>407</v>
-      </c>
-      <c r="F208" t="s">
-        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8361,10 +8343,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>408</v>
+      </c>
+      <c r="F209" t="s">
         <v>409</v>
-      </c>
-      <c r="F209" t="s">
-        <v>410</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8390,10 +8372,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>410</v>
+      </c>
+      <c r="F210" t="s">
         <v>411</v>
-      </c>
-      <c r="F210" t="s">
-        <v>412</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8419,10 +8401,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>412</v>
+      </c>
+      <c r="F211" t="s">
         <v>413</v>
-      </c>
-      <c r="F211" t="s">
-        <v>414</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8448,10 +8430,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>414</v>
+      </c>
+      <c r="F212" t="s">
         <v>415</v>
-      </c>
-      <c r="F212" t="s">
-        <v>416</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8477,10 +8459,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>416</v>
+      </c>
+      <c r="F213" t="s">
         <v>417</v>
-      </c>
-      <c r="F213" t="s">
-        <v>418</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8506,10 +8488,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>418</v>
+      </c>
+      <c r="F214" t="s">
         <v>419</v>
-      </c>
-      <c r="F214" t="s">
-        <v>420</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8535,10 +8517,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>420</v>
+      </c>
+      <c r="F215" t="s">
         <v>421</v>
-      </c>
-      <c r="F215" t="s">
-        <v>422</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8564,10 +8546,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>422</v>
+      </c>
+      <c r="F216" t="s">
         <v>423</v>
-      </c>
-      <c r="F216" t="s">
-        <v>424</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8593,10 +8575,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>424</v>
+      </c>
+      <c r="F217" t="s">
         <v>425</v>
-      </c>
-      <c r="F217" t="s">
-        <v>426</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8622,10 +8604,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>426</v>
+      </c>
+      <c r="F218" t="s">
         <v>427</v>
-      </c>
-      <c r="F218" t="s">
-        <v>428</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8651,10 +8633,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>428</v>
+      </c>
+      <c r="F219" t="s">
         <v>429</v>
-      </c>
-      <c r="F219" t="s">
-        <v>430</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8680,10 +8662,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>430</v>
+      </c>
+      <c r="F220" t="s">
         <v>431</v>
-      </c>
-      <c r="F220" t="s">
-        <v>432</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8709,10 +8691,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>432</v>
+      </c>
+      <c r="F221" t="s">
         <v>433</v>
-      </c>
-      <c r="F221" t="s">
-        <v>434</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8738,10 +8720,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>434</v>
+      </c>
+      <c r="F222" t="s">
         <v>435</v>
-      </c>
-      <c r="F222" t="s">
-        <v>436</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8767,10 +8749,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>436</v>
+      </c>
+      <c r="F223" t="s">
         <v>437</v>
-      </c>
-      <c r="F223" t="s">
-        <v>438</v>
       </c>
       <c r="G223" t="n">
         <v>6</v>
@@ -8796,10 +8778,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>438</v>
+      </c>
+      <c r="F224" t="s">
         <v>439</v>
-      </c>
-      <c r="F224" t="s">
-        <v>440</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8825,10 +8807,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>440</v>
+      </c>
+      <c r="F225" t="s">
         <v>441</v>
-      </c>
-      <c r="F225" t="s">
-        <v>442</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8854,10 +8836,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>442</v>
+      </c>
+      <c r="F226" t="s">
         <v>443</v>
-      </c>
-      <c r="F226" t="s">
-        <v>444</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8883,10 +8865,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>444</v>
+      </c>
+      <c r="F227" t="s">
         <v>445</v>
-      </c>
-      <c r="F227" t="s">
-        <v>446</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8912,10 +8894,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>446</v>
+      </c>
+      <c r="F228" t="s">
         <v>447</v>
-      </c>
-      <c r="F228" t="s">
-        <v>448</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8941,10 +8923,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>448</v>
+      </c>
+      <c r="F229" t="s">
         <v>449</v>
-      </c>
-      <c r="F229" t="s">
-        <v>450</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8970,10 +8952,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>450</v>
+      </c>
+      <c r="F230" t="s">
         <v>451</v>
-      </c>
-      <c r="F230" t="s">
-        <v>452</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -8999,10 +8981,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>452</v>
+      </c>
+      <c r="F231" t="s">
         <v>453</v>
-      </c>
-      <c r="F231" t="s">
-        <v>454</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9028,10 +9010,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>454</v>
+      </c>
+      <c r="F232" t="s">
         <v>455</v>
-      </c>
-      <c r="F232" t="s">
-        <v>456</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9057,10 +9039,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>456</v>
+      </c>
+      <c r="F233" t="s">
         <v>457</v>
-      </c>
-      <c r="F233" t="s">
-        <v>458</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9086,10 +9068,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>458</v>
+      </c>
+      <c r="F234" t="s">
         <v>459</v>
-      </c>
-      <c r="F234" t="s">
-        <v>460</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9115,10 +9097,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>460</v>
+      </c>
+      <c r="F235" t="s">
         <v>461</v>
-      </c>
-      <c r="F235" t="s">
-        <v>462</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9144,10 +9126,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>462</v>
+      </c>
+      <c r="F236" t="s">
         <v>463</v>
-      </c>
-      <c r="F236" t="s">
-        <v>464</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9173,10 +9155,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>464</v>
+      </c>
+      <c r="F237" t="s">
         <v>465</v>
-      </c>
-      <c r="F237" t="s">
-        <v>466</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -9202,10 +9184,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>466</v>
+      </c>
+      <c r="F238" t="s">
         <v>467</v>
-      </c>
-      <c r="F238" t="s">
-        <v>468</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9231,10 +9213,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>468</v>
+      </c>
+      <c r="F239" t="s">
         <v>469</v>
-      </c>
-      <c r="F239" t="s">
-        <v>470</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9260,10 +9242,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9289,10 +9271,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9318,10 +9300,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9347,10 +9329,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9376,10 +9358,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9405,10 +9387,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9434,10 +9416,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9463,10 +9445,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9492,10 +9474,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9521,10 +9503,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G249" t="n">
         <v>3</v>
@@ -9550,10 +9532,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9579,10 +9561,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9608,10 +9590,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9637,10 +9619,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G253" t="n">
         <v>6</v>
@@ -9666,10 +9648,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9695,10 +9677,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -9724,10 +9706,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -9753,10 +9735,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>5</v>
@@ -9782,10 +9764,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9811,10 +9793,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9840,10 +9822,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9869,10 +9851,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G261" t="n">
         <v>3</v>
@@ -9898,10 +9880,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -9927,10 +9909,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -9956,10 +9938,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9985,10 +9967,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10014,10 +9996,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10043,10 +10025,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -10072,10 +10054,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10101,10 +10083,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10130,10 +10112,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10159,10 +10141,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10188,10 +10170,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10217,10 +10199,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -10246,10 +10228,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10275,10 +10257,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10304,10 +10286,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10333,10 +10315,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10362,10 +10344,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10391,10 +10373,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G279" t="n">
         <v>4</v>
@@ -10420,10 +10402,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10449,10 +10431,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F281" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10478,10 +10460,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F282" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10507,10 +10489,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F283" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10536,10 +10518,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10565,10 +10547,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10594,10 +10576,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10623,10 +10605,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10652,10 +10634,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10681,10 +10663,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -10710,10 +10692,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10739,10 +10721,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10768,10 +10750,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10797,10 +10779,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10826,10 +10808,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10855,10 +10837,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10884,10 +10866,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10913,10 +10895,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -10942,10 +10924,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G298" t="n">
         <v>4</v>
@@ -10971,10 +10953,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11000,10 +10982,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11029,10 +11011,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11058,10 +11040,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11087,10 +11069,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11116,10 +11098,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F304" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11145,10 +11127,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F305" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11174,10 +11156,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F306" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11203,10 +11185,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F307" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11232,10 +11214,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F308" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11261,10 +11243,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F309" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G309" t="n">
         <v>3</v>
@@ -11290,10 +11272,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F310" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11319,10 +11301,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F311" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11348,10 +11330,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F312" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11377,10 +11359,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F313" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11406,10 +11388,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F314" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11435,10 +11417,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F315" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -11464,10 +11446,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F316" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11493,10 +11475,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F317" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11522,10 +11504,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F318" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -11551,10 +11533,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F319" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11580,10 +11562,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F320" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11609,10 +11591,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F321" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11638,10 +11620,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F322" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11667,10 +11649,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F323" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11696,10 +11678,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F324" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11725,10 +11707,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F325" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11754,10 +11736,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F326" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11783,10 +11765,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F327" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11812,10 +11794,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F328" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11841,10 +11823,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F329" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
